--- a/Doc_R_markdown/RegionG2_Cat_DistanceToEdge.xlsx
+++ b/Doc_R_markdown/RegionG2_Cat_DistanceToEdge.xlsx
@@ -14,28 +14,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">[1]Sheet2!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">[1]Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">[1]Sheet2!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$10:$C$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$10:$D$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$10:$D$14</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$10:$C$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$10:$D$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$10:$C$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$10:$D$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$10:$C$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,33 +38,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>Cat_Distance_to_Edge</t>
-  </si>
-  <si>
-    <t>Cat_code</t>
-  </si>
-  <si>
-    <t>0-100</t>
-  </si>
-  <si>
-    <t>100-1000</t>
-  </si>
-  <si>
-    <t>1000-10000</t>
-  </si>
-  <si>
-    <t>10000-13604</t>
-  </si>
-  <si>
-    <t>Count(CellNumber)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Area_ha</t>
   </si>
   <si>
-    <t>Propotion of Forest</t>
+    <t>OID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Distance_m</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <t>1000-2000</t>
+  </si>
+  <si>
+    <t>2000-4000</t>
+  </si>
+  <si>
+    <t>4000-8000</t>
+  </si>
+  <si>
+    <t>8000-13604</t>
+  </si>
+  <si>
+    <t>Proportion of forest</t>
+  </si>
+  <si>
+    <t>Distance to edge_m</t>
+  </si>
+  <si>
+    <t>&gt;=8000</t>
   </si>
 </sst>
 </file>
@@ -114,13 +117,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -145,10 +148,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -164,7 +167,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RegionGroup2_Patch_Distance_to_Edge</a:t>
+              <a:t>RegionGroup2_Forest_Distance_to_Edge</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -172,11 +175,11 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{B6644235-92DF-4C06-AE4F-B7094B878159}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{821605F5-988C-4E5D-8299-54653E49D6A1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Propotion of Forest</cx:v>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Proportion of forest</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataLabels>
@@ -188,8 +191,8 @@
           </cx:layoutPr>
           <cx:axisId val="1"/>
         </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{9A3EAE98-1468-4525-B503-E3E76FE9E88B}">
-          <cx:axisId val="3"/>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{59EF8C14-2D8D-4A57-9C9B-C505D9B74B90}">
+          <cx:axisId val="2"/>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
@@ -201,11 +204,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Patch Diatance to Edge</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Patch distance to edge</a:t>
                 </a:r>
               </a:p>
             </cx:rich>
@@ -226,7 +229,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Propotion Of Foret Area</a:t>
+                  <a:t>Propotion of forest</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1050"/>
               </a:p>
@@ -236,7 +239,7 @@
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
-      <cx:axis id="3" hidden="1">
+      <cx:axis id="2" hidden="1">
         <cx:valScaling max="1" min="0"/>
         <cx:units unit="percentage"/>
         <cx:tickLabels/>
@@ -736,22 +739,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1301750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvPr id="2" name="Chart 1"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -803,73 +806,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Frequency</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>100-1000</v>
-          </cell>
-          <cell r="B2">
-            <v>28167</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v xml:space="preserve">1000-10000 </v>
-          </cell>
-          <cell r="B3">
-            <v>3423</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>10000-100000</v>
-          </cell>
-          <cell r="B4">
-            <v>431</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>100000-1000000</v>
-          </cell>
-          <cell r="B5">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>1000000-10000000</v>
-          </cell>
-          <cell r="B6">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>1000000-100000000</v>
-          </cell>
-          <cell r="B7">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,160 +1071,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="18.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>112876241</v>
+      </c>
+      <c r="E2" s="3">
         <f>D2*0.886</f>
-        <v>391328704.15799999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>441680253</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+        <v>100008349.52600001</v>
+      </c>
+      <c r="F2" s="1">
         <f>D2/$D$7</f>
-        <v>0.77959472792695272</v>
+        <v>0.90394388281972937</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C6" si="0">D3*0.886</f>
-        <v>29862290.662</v>
-      </c>
-      <c r="D3" s="1">
-        <v>33704617</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F7" si="1">D3/$D$7</f>
-        <v>5.9490868205052283E-2</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8776611</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E6" si="0">D3*0.886</f>
+        <v>7776077.3459999999</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" si="1">D3/$D$7</f>
+        <v>7.0285506985817744E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2730743</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>70146058.864000008</v>
-      </c>
-      <c r="D4" s="1">
-        <v>79171624</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
+        <v>2419438.298</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>0.13974312922659687</v>
+        <v>2.1868538574054713E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>445681</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>10612197.014</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11977649</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
+        <v>394873.36599999998</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>2.1141339124707344E-2</v>
+        <v>3.5691356309338809E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41574</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>15026.56</v>
-      </c>
-      <c r="D6" s="1">
-        <v>16960</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <f>D6/$D$7</f>
-        <v>2.9935516690715895E-5</v>
+        <v>36834.563999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3293598946431454E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f>SUM(D2:D6)</f>
-        <v>566551103</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>124870850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.90394388281972937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.0285506985817744E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.1868538574054713E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.5691356309338809E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.3293598946431454E-4</v>
       </c>
     </row>
   </sheetData>
